--- a/output/allocation_summary_nsga_955.xlsx
+++ b/output/allocation_summary_nsga_955.xlsx
@@ -462,7 +462,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>3</v>
@@ -472,213 +472,213 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3,5,6</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>30,19,1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>6,15</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>26,14</t>
+          <t>19,23</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5,8,14</t>
+          <t>4,8,14</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3,19,1</t>
+          <t>2,20,26</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>29</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>13,14</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12,28</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10,12</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>29,1</t>
+          <t>25,25</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>12,13</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2,28</t>
+          <t>33</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>162</v>
+        <v>266</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>25,25</t>
+          <t>28</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>229</v>
+        <v>329</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>20,21</t>
+          <t>12,18</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>13,27</t>
+          <t>46,4</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>293</v>
+        <v>381</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>361</v>
+        <v>409</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -687,40 +687,40 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>401</v>
+        <v>457</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>7,9,11</t>
+          <t>9,11</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2,27,21</t>
+          <t>30,10</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>475</v>
+        <v>498</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -735,49 +735,49 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>490</v>
+        <v>594</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18,23</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>12,18</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>520</v>
+        <v>607</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>18,23</t>
+          <t>17,22</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>16,19</t>
+          <t>36,14</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>571</v>
+        <v>633</v>
       </c>
       <c r="B17" t="n">
         <v>3</v>
@@ -792,13 +792,13 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>50</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>584</v>
+        <v>647</v>
       </c>
       <c r="B18" t="n">
         <v>3</v>
@@ -808,39 +808,39 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>11,16</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3,30</t>
+          <t>27</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>827</v>
+        <v>785</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>22,24</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>6,5</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>874</v>
+        <v>843</v>
       </c>
       <c r="B20" t="n">
         <v>2</v>
@@ -850,33 +850,33 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>40</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>22,27</t>
+          <t>24,26</t>
         </is>
       </c>
     </row>
